--- a/Packages/cn.etetet.quest/Luban/Config/Base/__beans__.xlsx
+++ b/Packages/cn.etetet.quest/Luban/Config/Base/__beans__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11018"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Config/Base/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.quest/Luban/Config/Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26759EA1-AC84-AF45-9136-EC814731C8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65400CF5-DD58-2B42-8740-EC0A0AF0BF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1840" yWindow="3040" windowWidth="28920" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,10 +121,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>ET.QuestObjectiveParams_Collectltem</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>怪物配置Id</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -134,6 +130,10 @@
   </si>
   <si>
     <t>道具Id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ET.QuestObjectiveParams_CollectItem</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -522,7 +522,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -642,7 +642,7 @@
         <v>23</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>24</v>
@@ -653,22 +653,22 @@
     </row>
     <row r="8" spans="1:16">
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
